--- a/3semester/TerVer/Lab3/Lab3 (1).xlsx
+++ b/3semester/TerVer/Lab3/Lab3 (1).xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\university\3semester\TerVer\Lab3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
     <sheet name="Лист2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>Задача 1</t>
   </si>
@@ -162,14 +167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +180,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,152 +190,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,7 +206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,97 +248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,92 +258,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -815,397 +495,81 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="31" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="31" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="31" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="43" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="31" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="31" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="31" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="31" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="31" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="43" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="43" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="43" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="43" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="43" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="43" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="31" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="3">
+    <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
+    <cellStyle name="Акцент5" xfId="2" builtinId="45"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF99FF"/>
+      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>401320</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>357255</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>128819</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7434580" y="3888105"/>
-          <a:ext cx="7346950" cy="7077710"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1227,7 +591,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1265,7 +629,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1282,11 +646,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584548</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52191</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7630438" y="4029207"/>
+          <a:ext cx="6858000" cy="2854527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1308,7 +710,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1346,7 +748,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1367,7 +769,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1389,7 +791,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1427,7 +829,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1465,7 +867,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1503,7 +905,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1775,30 +1177,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="24.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="25.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="8.77777777777778" customWidth="1"/>
-    <col min="6" max="6" width="31.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="26.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="31.21875" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:15">
+    <row r="1" spans="1:15">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1867,18 +1269,18 @@
       </c>
       <c r="M2" s="35">
         <f>AVERAGE(B2:J2)</f>
-        <v>7.77777777777778</v>
+        <v>7.7777777777777777</v>
       </c>
       <c r="N2" s="35">
         <f>_xlfn.VAR.S(B2:J2)</f>
-        <v>3.94444444444444</v>
+        <v>3.9444444444444429</v>
       </c>
       <c r="O2" s="35">
         <f>L2-1</f>
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:15">
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1922,7 +1324,7 @@
       </c>
       <c r="N3" s="35">
         <f>_xlfn.VAR.S(B3:K3)</f>
-        <v>10.9444444444444</v>
+        <v>10.944444444444445</v>
       </c>
       <c r="O3" s="35">
         <f>L3-1</f>
@@ -1935,14 +1337,14 @@
       </c>
       <c r="B4" s="32">
         <f>N3/N2</f>
-        <v>2.77464788732394</v>
+        <v>2.7746478873239449</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="32">
         <f>_xlfn.F.INV.RT(C1/2,O3,O2)</f>
-        <v>4.35723306496021</v>
+        <v>4.3572330649602122</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
@@ -1954,15 +1356,15 @@
         <v>10</v>
       </c>
       <c r="B5" s="32">
-        <f>(M3-M2)/(SQRT(N2/L2+N3/L3))</f>
-        <v>2.19883541101195</v>
+        <f>(M3-M2)/(SQRT(M9*(1/L2+1/L3)))</f>
+        <v>2.1420422642222809</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="32">
         <f>_xlfn.T.INV.2T(C1,O6)</f>
-        <v>2.00246545929101</v>
+        <v>2.0024654592910065</v>
       </c>
       <c r="L5" s="35"/>
       <c r="M5" s="35"/>
@@ -1971,10 +1373,10 @@
       </c>
       <c r="O5" s="35">
         <f>(N2/L2+N3/L3)^2/((N2/L2)^2/(L2-1)+(N2/L3)^2/(L3-1))</f>
-        <v>56.8850680236019</v>
-      </c>
-    </row>
-    <row r="6" spans="12:15">
+        <v>56.885068023601853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
       <c r="N6" s="35" t="s">
@@ -1984,17 +1386,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="6:6">
+    <row r="7" spans="1:15">
       <c r="F7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:1">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="6:8">
+    <row r="9" spans="1:15">
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
         <v>6</v>
@@ -2002,8 +1404,15 @@
       <c r="H9" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <f>((L3-1)*N3+(L2-1)*N2)/(L3+L2-2)</f>
+        <v>7.6503267973856204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>6</v>
@@ -2015,18 +1424,18 @@
         <v>15</v>
       </c>
       <c r="G10" s="10">
-        <v>7.77777777777778</v>
+        <v>7.7777777777777803</v>
       </c>
       <c r="H10" s="10">
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:15">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="10">
-        <v>7.77777777777778</v>
+        <v>7.7777777777777803</v>
       </c>
       <c r="C11" s="10">
         <v>10.5</v>
@@ -2035,18 +1444,18 @@
         <v>16</v>
       </c>
       <c r="G11" s="10">
-        <v>3.94444444444444</v>
+        <v>3.9444444444444402</v>
       </c>
       <c r="H11" s="10">
         <v>10.9444444444444</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:15">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="10">
-        <v>3.94444444444444</v>
+        <v>3.9444444444444402</v>
       </c>
       <c r="C12" s="10">
         <v>10.9444444444444</v>
@@ -2061,7 +1470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:15">
       <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
@@ -2079,7 +1488,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:15">
       <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
@@ -2097,12 +1506,12 @@
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:15">
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="33">
-        <v>0.360406091370558</v>
+        <v>0.36040609137055801</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="34" t="s">
@@ -2110,29 +1519,29 @@
       </c>
       <c r="E15" s="34">
         <f>1/B15</f>
-        <v>2.77464788732394</v>
+        <v>2.7746478873239466</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="10">
-        <v>-2.19883541101195</v>
+        <v>-2.1988354110119501</v>
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:15">
       <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="10">
-        <v>0.0827540171554133</v>
+        <v>8.2754017155413306E-2</v>
       </c>
       <c r="C16" s="10"/>
       <c r="F16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="10">
-        <v>0.021996618525128</v>
+        <v>2.1996618525127999E-2</v>
       </c>
       <c r="H16" s="10"/>
     </row>
@@ -2149,40 +1558,40 @@
       </c>
       <c r="E17" s="34">
         <f>1/B17</f>
-        <v>4.35723306496021</v>
+        <v>4.3572330649602025</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="10">
-        <v>1.75305035569257</v>
+        <v>1.7530503556925701</v>
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="6:8">
+    <row r="18" spans="1:8">
       <c r="F18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="10">
-        <v>0.043993237050256</v>
+        <v>4.3993237050255998E-2</v>
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" ht="15.15" spans="6:8">
+    <row r="19" spans="1:8">
       <c r="F19" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="11">
-        <v>2.13144954555977</v>
+        <v>2.1314495455597702</v>
       </c>
       <c r="H19" s="11"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="1:8">
       <c r="C21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2190,32 +1599,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.8888888888889"/>
-    <col min="7" max="7" width="9.66666666666667"/>
+    <col min="2" max="2" width="12.88671875"/>
+    <col min="7" max="7" width="9.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C1" s="18">
-        <v>90.018</v>
+        <v>90.018000000000001</v>
       </c>
       <c r="E1" s="19">
         <v>0.05</v>
@@ -2247,19 +1654,19 @@
         <v>90.012</v>
       </c>
       <c r="I2" s="21">
-        <v>90.022</v>
+        <v>90.022000000000006</v>
       </c>
       <c r="J2" s="29">
-        <v>90.023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>90.022999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="23">
         <f>ABS(F5-C1)/SQRT(G5/E5)</f>
-        <v>1.79624261278488</v>
+        <v>1.7962426127848801</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>2</v>
@@ -2274,13 +1681,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="26">
         <f>_xlfn.T.INV.2T(E1,H5)</f>
-        <v>2.26215716279821</v>
+        <v>2.2621571627982053</v>
       </c>
       <c r="E5" s="25">
         <f>COUNT(A2:J2)</f>
@@ -2288,18 +1695,18 @@
       </c>
       <c r="F5" s="27">
         <f>AVERAGE(A2:J2)</f>
-        <v>90.0139</v>
+        <v>90.013900000000007</v>
       </c>
       <c r="G5" s="27">
         <f>_xlfn.VAR.S(A2:J2)</f>
-        <v>5.20999999999777e-5</v>
+        <v>5.2099999999977739E-5</v>
       </c>
       <c r="H5" s="26">
         <f>E5-1</f>
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:1">
+    <row r="7" spans="1:10">
       <c r="A7" s="28" t="s">
         <v>33</v>
       </c>
@@ -2311,30 +1718,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="12.8888888888889"/>
-    <col min="6" max="6" width="12.8888888888889"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875"/>
+    <col min="6" max="6" width="12.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.8" customHeight="1" spans="1:13">
+    <row r="1" spans="1:13" ht="19.8" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -2375,7 +1780,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -2410,7 +1815,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
@@ -2445,7 +1850,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -2490,7 +1895,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
@@ -2510,7 +1915,7 @@
       </c>
       <c r="F5" s="8">
         <f>_xlfn.VAR.S(B4:K4)</f>
-        <v>101.433333333333</v>
+        <v>101.43333333333334</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>43</v>
@@ -2520,29 +1925,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="8">
         <f>ABS(D5)/SQRT(F5/B5)</f>
-        <v>2.16650024218222</v>
+        <v>2.1665002421822197</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="8">
         <f>_xlfn.T.INV.2T(M1,H5)</f>
-        <v>2.26215716279821</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>2.2621571627982053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" ht="15.15"/>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:13">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
         <v>37</v>
@@ -2551,7 +1955,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:13">
       <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
@@ -2562,18 +1966,18 @@
         <v>280.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:13">
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="10">
-        <v>39.0666666666667</v>
+        <v>39.066666666666698</v>
       </c>
       <c r="C13" s="10">
-        <v>56.4555555555556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>56.455555555555598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -2584,16 +1988,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:13">
       <c r="A15" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="10">
-        <v>-0.0629336044205812</v>
+        <v>-6.2933604420581199E-2</v>
       </c>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:13">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
@@ -2616,7 +2020,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="10">
-        <v>2.16650024218222</v>
+        <v>2.1665002421822201</v>
       </c>
       <c r="C18" s="10"/>
     </row>
@@ -2625,7 +2029,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="10">
-        <v>0.0292228201950028</v>
+        <v>2.9222820195002799E-2</v>
       </c>
       <c r="C19" s="10"/>
     </row>
@@ -2634,7 +2038,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="10">
-        <v>1.83311293265624</v>
+        <v>1.8331129326562401</v>
       </c>
       <c r="C20" s="10"/>
     </row>
@@ -2643,27 +2047,26 @@
         <v>26</v>
       </c>
       <c r="B21" s="10">
-        <v>0.0584456403900056</v>
+        <v>5.8445640390005597E-2</v>
       </c>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" ht="15.15" spans="1:3">
+    <row r="22" spans="1:3">
       <c r="A22" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="11">
-        <v>2.26215716279821</v>
+        <v>2.2621571627982102</v>
       </c>
       <c r="C22" s="11"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>